--- a/biology/Zoologie/Conus_costellatus/Conus_costellatus.xlsx
+++ b/biology/Zoologie/Conus_costellatus/Conus_costellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus costellatus est une espèce fossile de mollusques gastéropodes marins de la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en France.
 </t>
@@ -544,9 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus costellatus a été décrite pour la première fois en 1835 par le médecin et naturaliste français Jean Pierre Sylvestre Grateloup (1782-1862)[1].
-Identifiants taxonomiques
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus costellatus a été décrite pour la première fois en 1835 par le médecin et naturaliste français Jean Pierre Sylvestre Grateloup (1782-1862).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_costellatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_costellatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Identifiants taxonomiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ressources relatives au vivant : Global Biodiversity Information Facility World Register of Marine Species  
 Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus costellatus dans les principales bases sont les suivants :
 CoL : XX8G - GBIF : 9785855 - WoRMS : 1053615
